--- a/테이블명세-recall-listl.xlsx
+++ b/테이블명세-recall-listl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,15 +209,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>recall_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR(3000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1157,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1785,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>14</v>
@@ -1882,17 +1910,15 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1909,13 +1935,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>47</v>
@@ -1934,17 +1960,15 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1959,17 +1983,15 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1984,13 +2006,13 @@
         <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2007,17 +2029,15 @@
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2032,17 +2052,15 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2057,17 +2075,15 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2082,13 +2098,13 @@
         <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2105,17 +2121,15 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2130,13 +2144,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
